--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45138</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45138</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45138</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx"; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx; "A 34293-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -632,23 +632,23 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png"; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx"; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx"; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx"; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx"; "A 34293-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx"; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png"; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx"; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx"; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx"; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx"; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -647,9 +647,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx"; "A 34293-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,29 +628,28 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx, "A 34293-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx"; "A 34293-2023")</t>
-        </is>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx", "A 34293-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -663,7 +662,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,7 +724,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +781,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +838,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -896,7 +895,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -958,7 +957,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1020,7 +1019,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1082,7 +1081,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1143,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1206,7 +1205,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1268,7 +1267,7 @@
         <v>45131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1325,7 +1324,7 @@
         <v>45138</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1387,7 +1386,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1449,7 +1448,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx, "A 34293-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="T2">

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45138</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45138</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45138</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/artfynd/A 34293-2023.xlsx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/kartor/A 34293-2023.png", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomål/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomålsmail/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/tillsyn/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/tillsynsmail/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45138</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/artfynd/A 34293-2023.xlsx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/artfynd/A 34293-2023 artfynd.xlsx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/kartor/A 34293-2023.png", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/kartor/A 34293-2023 karta.png", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomål/A 34293-2023.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomål/A 34293-2023 fsc-klagomål.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomålsmail/A 34293-2023.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomålsmail/A 34293-2023 fsc-klagomål mail.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/tillsyn/A 34293-2023.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/tillsyn/A 34293-2023 tillsynsbegäran.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/tillsynsmail/A 34293-2023.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/ti,llsynsmail/A 34293-2023 tillsynsbegäran mail.docx", "A 34293-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45138</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -636,11 +636,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomål/A 34293-2023 fsc-klagomål.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomål/A 34293-2023 FSC-klagomål.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomålsmail/A 34293-2023 fsc-klagomål mail.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomålsmail/A 34293-2023 FSC-klagomål mail.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -648,7 +648,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/ti,llsynsmail/A 34293-2023 tillsynsbegäran mail.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/tillsynsmail/A 34293-2023 tillsynsbegäran mail.docx", "A 34293-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45138</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45138</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45138</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45138</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
+++ b/Logging_OREBRO_LAN/Logging_LINDESBERG/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45119</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45119</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45131</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45138</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
